--- a/Benchmark Results Reporting dynoNet.xlsx
+++ b/Benchmark Results Reporting dynoNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario.piga\Desktop\Lavoro\Ricerca\Benchmarks\benchmarks_baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86CE60-DC57-4B6A-B762-D97102042BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE5CF14-A377-48E5-B2E0-4E17DDFA8028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="4460" windowWidth="11520" windowHeight="8480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>https://github.com/dariopi/dynonet_baseline</t>
   </si>
   <si>
-    <t>[1.22, 5.61, 1.35]</t>
-  </si>
-  <si>
     <t>Laptop CPU i7-1185G7 @ 3.00GHz</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>[0.062, 0.047]</t>
+  </si>
+  <si>
+    <t>[1.218, 5.609, 1.348]</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,9 @@
   </sheetPr>
   <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,19 +603,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="10">
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,13 +647,13 @@
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="10">
         <v>10</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,13 +683,13 @@
         <v>24</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="10">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>19</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="10">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,19 +749,19 @@
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="10">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
